--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE59550-C4BD-4C85-A57D-099FBF0605CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872F472-C7B7-4D38-ADFB-2EEBD8FBAAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌-朵菈" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>卡牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稀有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取一点屏障</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +136,79 @@
   </si>
   <si>
     <t>对所有敌人造成40点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通牌</t>
+  </si>
+  <si>
+    <t>造成5点伤害两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得9点格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得12点格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕见牌</t>
+  </si>
+  <si>
+    <t>基础牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有牌</t>
+  </si>
+  <si>
+    <t>稀有牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕见牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成16点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成22点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,12 +248,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -471,9 +564,10 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +589,23 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -515,8 +624,28 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="1">
+        <f>COUNTIF(C:C,"=基础牌")</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <f>COUNTIF(C:C,"=普通牌")</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <f>COUNTIF(C:C,"=罕见牌")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>COUNTIF(C:C,"=稀有牌")</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(H2:K2)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -535,8 +664,21 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -555,8 +697,25 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="1">
+        <f>COUNTIF(B:B,"=攻击牌")</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>COUNTIF(B:B,"=技能牌")</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <f>COUNTIF(B:B,"=能力牌")</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUM(H4:J4)</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -564,42 +723,102 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 H3:J3" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
       <formula1>"攻击牌,技能牌, 能力牌"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{297079E6-A46C-44EB-817C-603C4CA96052}">

--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872F472-C7B7-4D38-ADFB-2EEBD8FBAAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD789-2282-4A3D-A539-8D24E5FD6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>卡牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩具安全帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +205,108 @@
   </si>
   <si>
     <t>对所有敌人造成22点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具头盔</t>
+  </si>
+  <si>
+    <t>名称Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrikeOfDora</t>
+  </si>
+  <si>
+    <t>DefendOfDora</t>
+  </si>
+  <si>
+    <t>ToysCastle</t>
+  </si>
+  <si>
+    <t>TwinShoot</t>
+  </si>
+  <si>
+    <t>ToysHelmet</t>
+  </si>
+  <si>
+    <t>RangeLock</t>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpkinAtomicBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全弹发射</t>
+  </si>
+  <si>
+    <t>攻击牌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害X次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害X次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireAllBullets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕见牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，随机获取一张绝望魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，随机获取一张升级过的绝望魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PenetrateBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除一名敌人的所有格挡值，造成10点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,9 +365,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -550,279 +651,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3">
+        <f>COUNTIF(D:D,"=基础牌")</f>
+        <v>3</v>
+      </c>
+      <c r="L2" s="3">
+        <f>COUNTIF(D:D,"=普通牌")</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <f>COUNTIF(D:D,"=罕见牌")</f>
+        <v>4</v>
+      </c>
+      <c r="N2" s="3">
+        <f>COUNTIF(D:D,"=稀有牌")</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SUM(K2:N2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3">
+        <f>COUNTIF(C:C,"=攻击牌")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="3">
+        <f>COUNTIF(C:C,"=技能牌")</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <f>COUNTIF(C:C,"=能力牌")</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <f>SUM(K4:M4)</f>
+        <v>11</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1">
-        <f>COUNTIF(C:C,"=基础牌")</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <f>COUNTIF(C:C,"=普通牌")</f>
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <f>COUNTIF(C:C,"=罕见牌")</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <f>COUNTIF(C:C,"=稀有牌")</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="1">
-        <f>SUM(H2:K2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1">
-        <f>COUNTIF(B:B,"=攻击牌")</f>
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <f>COUNTIF(B:B,"=技能牌")</f>
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <f>COUNTIF(B:B,"=能力牌")</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <f>SUM(H4:J4)</f>
-        <v>8</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 H3:J3" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 K3:M3" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
       <formula1>"攻击牌,技能牌, 能力牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{297079E6-A46C-44EB-817C-603C4CA96052}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{297079E6-A46C-44EB-817C-603C4CA96052}">
       <formula1>"基础牌,普通牌,罕见牌,稀有牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1048576" xr:uid="{6235ED08-B6CC-4539-B308-A8A72B2A9F14}">
+      <formula1>"done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD789-2282-4A3D-A539-8D24E5FD6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A65AFC-EDB9-4258-A685-3F393DF86EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>卡牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩具作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取一张随机欧帕兹牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,95 +214,344 @@
     <t>StrikeOfDora</t>
   </si>
   <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpkinAtomicBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全弹发射</t>
+  </si>
+  <si>
+    <t>攻击牌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害X次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害X次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireAllBullets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕见牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，随机获取一张绝望魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，随机获取一张升级过的绝望魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PenetrateBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除一名敌人的所有格挡值，造成10点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害6次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurstShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机造成3点伤害3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升4点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机造成3点伤害4次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，当前能量与上限每差一点增加3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害，当前能量与上限每差一点增加4点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ricochet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，给与一层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，给与2层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，给与一层易伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，给与2层易伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrecisionShoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力增幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得两点力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirepowerIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗一张牌，获得一张随机欧帕兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量消耗降低至0点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送履带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每打出一张欧帕兹牌，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用降为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具装甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点多层护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取攻击牌，技能牌，能力牌各一张 消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏青哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取-10~30金币，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得7点多层护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再装填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合第一次打出欧帕兹牌时，获得一点能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过山车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽4张牌，在抽牌堆加入一张眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再增加眩晕到抽牌堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭蛋机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼屋冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用降为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GashaponMachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dismantling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwinForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConveyorBelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToysArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClawMachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pachinko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RollerCoaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HauntedHouseAdventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人获得2层无实体, 消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铳身攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwinShoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DefendOfDora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ToysCastle</t>
-  </si>
-  <si>
-    <t>TwinShoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ToysHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RangeLock</t>
-  </si>
-  <si>
-    <t>添加状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PumpkinAtomicBomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全弹发射</t>
-  </si>
-  <si>
-    <t>攻击牌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害X次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害X次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireAllBullets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罕见牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，随机获取一张绝望魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，随机获取一张升级过的绝望魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿甲弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PenetrateBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去除一名敌人的所有格挡值，造成10点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,12 +575,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -365,12 +616,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -651,32 +906,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -691,39 +946,42 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -738,38 +996,41 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="3">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3">
         <f>COUNTIF(D:D,"=基础牌")</f>
         <v>3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <f>COUNTIF(D:D,"=普通牌")</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3">
         <f>COUNTIF(D:D,"=罕见牌")</f>
-        <v>4</v>
-      </c>
-      <c r="N2" s="3">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3">
         <f>COUNTIF(D:D,"=稀有牌")</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="3">
-        <f>SUM(K2:N2)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3">
+        <f>SUM(L2:O2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -784,272 +1045,709 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="L4" s="3">
+        <f>COUNTIF(C:C,"=攻击牌")</f>
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="3">
+        <f>COUNTIF(C:C,"=技能牌")</f>
+        <v>9</v>
+      </c>
+      <c r="N4" s="3">
+        <f>COUNTIF(C:C,"=能力牌")</f>
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(L4:N4)</f>
+        <v>25</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3">
-        <f>COUNTIF(C:C,"=攻击牌")</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="3">
-        <f>COUNTIF(C:C,"=技能牌")</f>
-        <v>3</v>
-      </c>
-      <c r="M4" s="3">
-        <f>COUNTIF(C:C,"=能力牌")</f>
-        <v>2</v>
-      </c>
-      <c r="N4" s="3">
-        <f>SUM(K4:M4)</f>
-        <v>11</v>
-      </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 K3:M3" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 L3:N3" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
       <formula1>"攻击牌,技能牌, 能力牌"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{297079E6-A46C-44EB-817C-603C4CA96052}">
       <formula1>"基础牌,普通牌,罕见牌,稀有牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1048576" xr:uid="{6235ED08-B6CC-4539-B308-A8A72B2A9F14}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:J1048576" xr:uid="{6235ED08-B6CC-4539-B308-A8A72B2A9F14}">
       <formula1>"done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A65AFC-EDB9-4258-A685-3F393DF86EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8B8EB-732B-4F59-B104-20E3155327CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="卡牌-朵菈" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌-欧帕兹" sheetId="3" r:id="rId1"/>
+    <sheet name="卡牌-朵菈" sheetId="1" r:id="rId2"/>
+    <sheet name="卡牌-绝望魔法" sheetId="5" r:id="rId3"/>
+    <sheet name="OOPARTS" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="167">
   <si>
     <t>卡牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +555,146 @@
   </si>
   <si>
     <t>RangeLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命断流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除对方所有的增益效果 消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过量强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌人的强化效果反转 消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单边压制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外进行一个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用降为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡叹息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX魅惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体魅惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原爆起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩童游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔女之夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakLife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverDoze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchsNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCharm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanceInTheDark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroudZero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnilateralPressing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，抽两张牌，获得两点能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕所有敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯人形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RussianDoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罕见牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用降为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一张绝望魔法，其消耗为0，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭所有生命值低于你最大生命值的敌人, 消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体移除人工制品，获得99层虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌数与能量加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">敌方全体最大生命减少20% </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -626,6 +775,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -905,11 +1057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9080DB95-6159-4402-A58F-F1E8209FADF5}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -920,7 +1072,7 @@
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="47.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" customWidth="1"/>
@@ -961,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>36</v>
@@ -1177,7 +1329,7 @@
         <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -1206,7 +1358,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -1235,7 +1387,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -1293,10 +1445,10 @@
         <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -1320,10 +1472,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1349,10 +1501,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1378,10 +1530,10 @@
         <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -1410,7 +1562,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1436,10 +1588,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1463,10 +1615,10 @@
         <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1495,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1524,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1548,10 +1700,10 @@
         <v>118</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1575,10 +1727,10 @@
         <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1604,10 +1756,10 @@
         <v>120</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1631,10 +1783,10 @@
         <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1660,10 +1812,10 @@
         <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -1687,10 +1839,10 @@
         <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1716,6 +1868,858 @@
         <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:J1048576" xr:uid="{10A01EA1-BDCF-44C2-A7B3-1954760B64B0}">
+      <formula1>"done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{4AA50EAA-DC47-40CF-99B5-81D225A182F3}">
+      <formula1>"基础牌,普通牌,罕见牌,稀有牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 L3:N3" xr:uid="{12035339-ADA0-4FA8-8B27-0C3FE7EC6C9B}">
+      <formula1>"攻击牌,技能牌, 能力牌"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3">
+        <f>COUNTIF(D:D,"=基础牌")</f>
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <f>COUNTIF(D:D,"=普通牌")</f>
+        <v>5</v>
+      </c>
+      <c r="N2" s="3">
+        <f>COUNTIF(D:D,"=罕见牌")</f>
+        <v>12</v>
+      </c>
+      <c r="O2" s="3">
+        <f>COUNTIF(D:D,"=稀有牌")</f>
+        <v>6</v>
+      </c>
+      <c r="P2" s="3">
+        <f>SUM(L2:O2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="L4" s="3">
+        <f>COUNTIF(C:C,"=攻击牌")</f>
+        <v>11</v>
+      </c>
+      <c r="M4" s="3">
+        <f>COUNTIF(C:C,"=技能牌")</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <f>COUNTIF(C:C,"=能力牌")</f>
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(L4:N4)</f>
+        <v>26</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1736,6 +2740,31 @@
       <c r="I26" s="2" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1754,4 +2783,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600FD023-FACC-408F-B56E-0C85FD5F5B7A}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="10.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="9.44140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="3">
+        <f>COUNTIF(D:D,"=基础牌")</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <f>COUNTIF(D:D,"=普通牌")</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <f>COUNTIF(D:D,"=罕见牌")</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <f>COUNTIF(D:D,"=稀有牌")</f>
+        <v>9</v>
+      </c>
+      <c r="P2" s="3">
+        <f>SUM(L2:O2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3">
+        <f>COUNTIF(C:C,"=攻击牌")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f>COUNTIF(C:C,"=技能牌")</f>
+        <v>8</v>
+      </c>
+      <c r="N7" s="3">
+        <f>COUNTIF(C:C,"=能力牌")</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f>SUM(L7:N7)</f>
+        <v>9</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:N3 C1 C3 C5:C10 C13:C1048576" xr:uid="{8E35EACB-B2DA-4EA4-9447-45245E931B41}">
+      <formula1>"攻击牌,技能牌, 能力牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3 D13:D1048576 D5:D10" xr:uid="{5F9B2F55-9F6A-483A-B6E4-7AD1AAE82C99}">
+      <formula1>"基础牌,普通牌,罕见牌,稀有牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:J1 H13:J1048576 J3 J5:J10" xr:uid="{79CA4DD9-625B-4B90-8FB6-07D43A3E3591}">
+      <formula1>"done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DC374A-EC7A-426D-9FAB-5DBEDEDE40BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8B8EB-732B-4F59-B104-20E3155327CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4D142-118C-4758-92FF-13E4988DC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌-欧帕兹" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="166">
   <si>
     <t>卡牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,18 +670,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罕见牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>费用降为1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取一张绝望魔法，其消耗为0，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消灭所有生命值低于你最大生命值的敌人, 消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,6 +687,10 @@
   </si>
   <si>
     <t xml:space="preserve">敌方全体最大生命减少20% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一张绝望魔法，本回合其消耗为0，消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2018,11 +2014,11 @@
       </c>
       <c r="N2" s="3">
         <f>COUNTIF(D:D,"=罕见牌")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="3">
         <f>COUNTIF(D:D,"=稀有牌")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2" s="3">
         <f>SUM(L2:O2)</f>
@@ -2741,30 +2737,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2789,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600FD023-FACC-408F-B56E-0C85FD5F5B7A}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>139</v>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>139</v>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>139</v>
@@ -3138,7 +3138,7 @@
         <v>136</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>49</v>
@@ -3172,7 +3172,7 @@
         <v>155</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>49</v>

--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4D142-118C-4758-92FF-13E4988DC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122949E8-C646-417F-8903-E9DED54DEF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2751,7 +2751,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>165</v>

--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122949E8-C646-417F-8903-E9DED54DEF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1160EC-A7B1-41BD-9B29-7AF72E01E682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2428,32 +2428,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="5"/>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">

--- a/docs/Mod设计数据.xlsx
+++ b/docs/Mod设计数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\ALittleWorldMod\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1160EC-A7B1-41BD-9B29-7AF72E01E682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74B655-099D-4231-8EF6-48F94C27A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="170">
   <si>
     <t>卡牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,30 +566,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消除对方所有的增益效果 消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过量强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有敌人的强化效果反转 消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单边压制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外进行一个回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用降为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡叹息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敌方全体魅惑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原爆起点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,14 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，抽两张牌，获得两点能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕所有敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>俄罗斯人形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,27 +642,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费用降为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭所有生命值低于你最大生命值的敌人, 消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体移除人工制品，获得99层虚弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽牌数与能量加一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">敌方全体最大生命减少20% </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取一张绝望魔法，本回合其消耗为0，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体魅惑  绝望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除对方所有的增益效果 消耗 绝望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭所有生命值低于你最大生命值一半的敌人, 绝望 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X个额外回合 绝望X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X + 1个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕所有敌人 消耗 绝望2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用减一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外进行一个回合 绝望1 消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体移除人工制品，获得2层虚弱 绝望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体最大生命减少20%  绝望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌人的强化效果反转 消耗 绝望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每有一点绝望，抽一张牌，获得 [R] 绝望2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗减一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1919,8 +1935,8 @@
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" customWidth="1"/>
@@ -2014,15 +2030,15 @@
       </c>
       <c r="N2" s="3">
         <f>COUNTIF(D:D,"=罕见牌")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3">
         <f>COUNTIF(D:D,"=稀有牌")</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P2" s="3">
         <f>SUM(L2:O2)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,15 +2115,15 @@
       </c>
       <c r="M4" s="3">
         <f>COUNTIF(C:C,"=技能牌")</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N4" s="3">
         <f>COUNTIF(C:C,"=能力牌")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" s="3">
         <f>SUM(L4:N4)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P4" s="3"/>
     </row>
@@ -2286,31 +2302,31 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2738,13 +2754,13 @@
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
@@ -2753,15 +2769,276 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2769,13 +3046,13 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 L3:N3" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:N3 C1:C27 C31:C1048576 C29" xr:uid="{5811FB69-8E18-41D2-A81C-F0DCC3040E28}">
       <formula1>"攻击牌,技能牌, 能力牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{297079E6-A46C-44EB-817C-603C4CA96052}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D27 D31:D1048576 D29" xr:uid="{297079E6-A46C-44EB-817C-603C4CA96052}">
       <formula1>"基础牌,普通牌,罕见牌,稀有牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:J1048576" xr:uid="{6235ED08-B6CC-4539-B308-A8A72B2A9F14}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 H1:I27 H37:I1048576" xr:uid="{6235ED08-B6CC-4539-B308-A8A72B2A9F14}">
       <formula1>"done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2789,7 +3066,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2861,25 +3138,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>49</v>
@@ -2897,11 +3174,11 @@
       </c>
       <c r="N2" s="3">
         <f>COUNTIF(D:D,"=罕见牌")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="3">
         <f>COUNTIF(D:D,"=稀有牌")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" s="3">
         <f>SUM(L2:O2)</f>
@@ -2910,10 +3187,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2925,10 +3202,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>49</v>
@@ -2952,10 +3229,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -2964,13 +3241,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>114</v>
+        <v>154</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>49</v>
@@ -2984,7 +3261,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2993,13 +3270,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>49</v>
@@ -3010,10 +3287,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -3022,13 +3299,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>49</v>
@@ -3039,10 +3316,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -3051,13 +3328,13 @@
         <v>37</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>49</v>
@@ -3088,7 +3365,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -3097,13 +3374,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>49</v>
@@ -3119,10 +3396,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -3134,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>49</v>
@@ -3153,10 +3430,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -3164,14 +3441,14 @@
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2">
-        <v>3</v>
+      <c r="E10" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>49</v>
